--- a/sch_results.xlsx
+++ b/sch_results.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/be82ef303f3cad60/Systems Science/Lab/Necessary Heterogenity in Network Models of Residential Segregation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_496D5DA7037A7CEEE065DCF650245E3FB48F8B4D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A410457-97AF-439E-ABB2-2A1CE33540DB}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Densifications</t>
+  </si>
+  <si>
+    <t>Mean Assortativity</t>
+  </si>
+  <si>
+    <t>Std Assortativity</t>
+  </si>
+  <si>
+    <t>Mean Connected Components</t>
+  </si>
+  <si>
+    <t>Std Connected Components</t>
+  </si>
+  <si>
+    <t>Mean Vacancy Degree Centrality</t>
+  </si>
+  <si>
+    <t>Std Vacancy Degree Centrality</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,267 +406,170 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Densifications</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Mean Assortativity</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Std Assortativity</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Mean Connected Components</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Std Connected Components</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Mean Vacancy Degree Centrality</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Std Vacancy Degree Centrality</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Mean T Node Degree Centrality</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Std T Node Degree Centrality</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Mean I Node Degree Centrality</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Std I Node Degree Centrality</t>
-        </is>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.5335072193324669</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.03195519800977453</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.083697374731525</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.003857932581391259</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.40143062038296e-05</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.003797774573466996</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.653969589858269e-05</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.003758353813319908</v>
-      </c>
-      <c r="L2" t="n">
-        <v>4.221596242856941e-05</v>
+      <c r="C2" s="2">
+        <v>0.6782061358335838</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2.3398509274099848E-2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.38405728739343042</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3.6138608689853129E-3</v>
+      </c>
+      <c r="H2" s="2">
+        <v>4.8766158893920069E-5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="2">
         <v>32</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.502280074042577</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.04937490285452412</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.014889156509222</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.007719362931938012</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0008651398741063715</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.006978254674561615</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.0003482280606031285</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.006636030570707019</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.0005324738987987534</v>
+      <c r="C3" s="2">
+        <v>0.78308173553284677</v>
+      </c>
+      <c r="D3" s="2">
+        <v>7.7044055671976225E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.76</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1.32</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1.104808557383377E-2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1.3196941445204121E-3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="2">
         <v>64</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.4606517172623476</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.05990243575318741</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.6982120021884471</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.01111140325139057</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.0009483801874477904</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.0100421576632857</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.0004899443563680781</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.009539938133497064</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.0006464686725545417</v>
+      <c r="C4" s="2">
+        <v>0.65235554086183445</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.14468135541062541</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2.44</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1.402283851436648</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1.399358610301661E-2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>9.2629778363405941E-4</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="2">
         <v>96</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.4411806157999588</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.06545904186924219</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.5306599664568639</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.01384425257602703</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.0009858188806562132</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.01258829091444737</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.0004806517768024152</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.01180548779333982</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.0008259829867371317</v>
+      <c r="C5" s="2">
+        <v>0.57269553694299491</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.15885434050600511</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1.3610290224679269</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1.5707651245558729E-2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>9.3428731647683401E-4</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="2">
         <v>128</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.3747087393112371</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.05944613502263845</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.4975942121849891</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.01603888984134804</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.001008900448706668</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.01483777917172109</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.000551243597233636</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.01399626873910193</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.0008139828948988565</v>
+      <c r="C6" s="2">
+        <v>0.51837893609827679</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.15784778042227379</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.84</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.99719606898543289</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1.7365335666926121E-2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1.0028096044098871E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sch_results.xlsx
+++ b/sch_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/be82ef303f3cad60/Systems Science/Lab/Necessary Heterogenity in Network Models of Residential Segregation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_496D5DA7037A7CEEE065DCF650245E3FB48F8B4D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A410457-97AF-439E-ABB2-2A1CE33540DB}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_496D048F0060545FE659BC3557245E3FB48F8B5C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D59BF984-E473-4324-A8D1-923FABF5418B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -410,7 +410,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="H6" sqref="B2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,22 +446,22 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>0.6782061358335838</v>
+        <v>0.88036686785260754</v>
       </c>
       <c r="D2" s="2">
-        <v>2.3398509274099848E-2</v>
+        <v>1.620901189538734E-2</v>
       </c>
       <c r="E2" s="2">
-        <v>1.1499999999999999</v>
+        <v>2.94</v>
       </c>
       <c r="F2" s="2">
-        <v>0.38405728739343042</v>
+        <v>1.4547852075134671</v>
       </c>
       <c r="G2" s="2">
-        <v>3.6138608689853129E-3</v>
+        <v>3.7868582671209748E-3</v>
       </c>
       <c r="H2" s="2">
-        <v>4.8766158893920069E-5</v>
+        <v>2.399945072882051E-5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -472,22 +472,22 @@
         <v>32</v>
       </c>
       <c r="C3" s="2">
-        <v>0.78308173553284677</v>
+        <v>0.94272746487918568</v>
       </c>
       <c r="D3" s="2">
-        <v>7.7044055671976225E-2</v>
+        <v>1.0346402372290901E-2</v>
       </c>
       <c r="E3" s="2">
-        <v>1.76</v>
+        <v>2.67</v>
       </c>
       <c r="F3" s="2">
-        <v>1.32</v>
+        <v>1.2414104881142261</v>
       </c>
       <c r="G3" s="2">
-        <v>1.104808557383377E-2</v>
+        <v>5.8193382476187331E-3</v>
       </c>
       <c r="H3" s="2">
-        <v>1.3196941445204121E-3</v>
+        <v>5.7047463655118022E-4</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -498,22 +498,22 @@
         <v>64</v>
       </c>
       <c r="C4" s="2">
-        <v>0.65235554086183445</v>
+        <v>0.95027287165552976</v>
       </c>
       <c r="D4" s="2">
-        <v>0.14468135541062541</v>
+        <v>1.089658272263714E-2</v>
       </c>
       <c r="E4" s="2">
-        <v>2.44</v>
+        <v>2.39</v>
       </c>
       <c r="F4" s="2">
-        <v>1.402283851436648</v>
+        <v>1.018773772728764</v>
       </c>
       <c r="G4" s="2">
-        <v>1.399358610301661E-2</v>
+        <v>8.6680309727733881E-3</v>
       </c>
       <c r="H4" s="2">
-        <v>9.2629778363405941E-4</v>
+        <v>7.8378403568300737E-4</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -524,22 +524,22 @@
         <v>96</v>
       </c>
       <c r="C5" s="2">
-        <v>0.57269553694299491</v>
+        <v>0.94877935351053</v>
       </c>
       <c r="D5" s="2">
-        <v>0.15885434050600511</v>
+        <v>1.2615406843775609E-2</v>
       </c>
       <c r="E5" s="2">
-        <v>2.2599999999999998</v>
+        <v>2.16</v>
       </c>
       <c r="F5" s="2">
-        <v>1.3610290224679269</v>
+        <v>1.1110355529864919</v>
       </c>
       <c r="G5" s="2">
-        <v>1.5707651245558729E-2</v>
+        <v>1.1403179855917539E-2</v>
       </c>
       <c r="H5" s="2">
-        <v>9.3428731647683401E-4</v>
+        <v>8.7581676481739146E-4</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -550,22 +550,22 @@
         <v>128</v>
       </c>
       <c r="C6" s="2">
-        <v>0.51837893609827679</v>
+        <v>0.94383765778470829</v>
       </c>
       <c r="D6" s="2">
-        <v>0.15784778042227379</v>
+        <v>1.437875586706742E-2</v>
       </c>
       <c r="E6" s="2">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="F6" s="2">
-        <v>0.99719606898543289</v>
+        <v>0.92757749002441814</v>
       </c>
       <c r="G6" s="2">
-        <v>1.7365335666926121E-2</v>
+        <v>1.3974061868830569E-2</v>
       </c>
       <c r="H6" s="2">
-        <v>1.0028096044098871E-3</v>
+        <v>9.881182744139903E-4</v>
       </c>
     </row>
   </sheetData>
